--- a/resource/excel/Stage——关卡.xlsx
+++ b/resource/excel/Stage——关卡.xlsx
@@ -1082,15 +1082,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.875" style="1" customWidth="1"/>
@@ -1148,6 +1148,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
         <v>2</v>
       </c>
     </row>
